--- a/Teensy4x Pins.xlsx
+++ b/Teensy4x Pins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\TeensyDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2809AEF-1398-4BB6-B1CB-068AE37F956C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA9EE1C-8C34-4D91-A50C-B9936E749B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14775" yWindow="2535" windowWidth="22260" windowHeight="16965" firstSheet="3" activeTab="6" xr2:uid="{42D65D2A-8D1C-4D07-8E53-DE4B585A6847}"/>
+    <workbookView xWindow="12300" yWindow="2640" windowWidth="26010" windowHeight="16950" firstSheet="3" activeTab="4" xr2:uid="{42D65D2A-8D1C-4D07-8E53-DE4B585A6847}"/>
   </bookViews>
   <sheets>
     <sheet name="T4" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6806" uniqueCount="1297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6806" uniqueCount="1298">
   <si>
     <t/>
   </si>
@@ -3939,6 +3939,9 @@
   </si>
   <si>
     <t>TFT_ADA_CS_SD</t>
+  </si>
+  <si>
+    <t>FLEXPWM4_PWMB02</t>
   </si>
 </sst>
 </file>
@@ -20283,8 +20286,8 @@
   </sheetPr>
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20440,7 +20443,7 @@
         <v>896</v>
       </c>
       <c r="D5" s="166" t="s">
-        <v>900</v>
+        <v>1297</v>
       </c>
       <c r="E5" s="174" t="s">
         <v>901</v>
@@ -26082,8 +26085,8 @@
   </sheetPr>
   <dimension ref="A1:AD42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
